--- a/Documentação/Actions.xlsx
+++ b/Documentação/Actions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.4\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3C0ECD-E005-4C38-AE88-E8B1F6BB2056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB750A2-9C17-4988-B8C9-2700D6D5117B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>Action</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>Defence</t>
+  </si>
+  <si>
+    <t>Front Rolling End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final do rolamento para frente </t>
+  </si>
+  <si>
+    <t>Final do rolamento para trás</t>
+  </si>
+  <si>
+    <t>Back Rolling End</t>
   </si>
 </sst>
 </file>
@@ -631,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE73BED-717E-4439-BBC8-BF9116A08280}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1515,7 @@
         <v>66</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C62" s="1">
         <v>140</v>
@@ -1518,30 +1530,60 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
+        <v>141</v>
+      </c>
+      <c r="D63" s="1">
+        <v>26</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="5">
+      <c r="B65" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="5">
         <v>150</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D65" s="5">
         <v>24</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="5">
+        <v>151</v>
+      </c>
+      <c r="D66" s="5">
+        <v>27</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Actions.xlsx
+++ b/Documentação/Actions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.4\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB750A2-9C17-4988-B8C9-2700D6D5117B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC4909-6AD8-4740-9802-36087E59D478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t>Action</t>
   </si>
@@ -210,9 +210,6 @@
     <t>idle(0), walk back(30)</t>
   </si>
   <si>
-    <t>VOID</t>
-  </si>
-  <si>
     <t>Numero da animação</t>
   </si>
   <si>
@@ -250,6 +247,30 @@
   </si>
   <si>
     <t>Back Rolling End</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>mudar de lado</t>
+  </si>
+  <si>
+    <t>Crouching(10), Crouched Idle(11)</t>
+  </si>
+  <si>
+    <t>Qualquer uma</t>
+  </si>
+  <si>
+    <t>Change Side</t>
+  </si>
+  <si>
+    <t>Change Side Crouched</t>
+  </si>
+  <si>
+    <t>mudar de lado Agachado</t>
+  </si>
+  <si>
+    <t>crouched Idle(11)</t>
   </si>
 </sst>
 </file>
@@ -643,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE73BED-717E-4439-BBC8-BF9116A08280}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,13 +691,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -778,7 +799,7 @@
         <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1306,7 +1327,7 @@
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1">
         <v>101</v>
@@ -1315,10 +1336,10 @@
         <v>25</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1384,14 +1405,14 @@
       <c r="E52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>59</v>
+      <c r="F52" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="1">
         <v>121</v>
@@ -1456,13 +1477,13 @@
         <v>45</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="5">
         <v>131</v>
@@ -1512,10 +1533,10 @@
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" s="1">
         <v>140</v>
@@ -1533,7 +1554,7 @@
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="1">
         <v>141</v>
@@ -1542,7 +1563,7 @@
         <v>26</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1553,10 +1574,10 @@
     </row>
     <row r="65" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="5">
         <v>150</v>
@@ -1574,7 +1595,7 @@
     <row r="66" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="5">
         <v>151</v>
@@ -1583,7 +1604,49 @@
         <v>27</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1">
+        <v>160</v>
+      </c>
+      <c r="D68" s="1">
+        <v>28</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="5">
+        <v>170</v>
+      </c>
+      <c r="D70" s="5">
+        <v>29</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Actions.xlsx
+++ b/Documentação/Actions.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.4\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC4909-6AD8-4740-9802-36087E59D478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E34C072-00FE-422C-AF71-9B4BDBF413CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Animações Basicas" sheetId="1" r:id="rId1"/>
+    <sheet name="Animações de ataque normal" sheetId="2" r:id="rId2"/>
+    <sheet name="Animações de ataque de comando" sheetId="3" r:id="rId3"/>
+    <sheet name="Animações sofrendo dano" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
   <si>
     <t>Action</t>
   </si>
@@ -271,14 +274,187 @@
   </si>
   <si>
     <t>crouched Idle(11)</t>
+  </si>
+  <si>
+    <t>soco baixo</t>
+  </si>
+  <si>
+    <t>soco alto</t>
+  </si>
+  <si>
+    <t>chute baixo</t>
+  </si>
+  <si>
+    <t>chute alto</t>
+  </si>
+  <si>
+    <t>soco baixo agachado</t>
+  </si>
+  <si>
+    <t>soco alto agachado</t>
+  </si>
+  <si>
+    <t>chute baixo agachado</t>
+  </si>
+  <si>
+    <t>chute alto agachado</t>
+  </si>
+  <si>
+    <t>soco alto colado</t>
+  </si>
+  <si>
+    <t>chute alto colado</t>
+  </si>
+  <si>
+    <t>ataque especial (soco forte &amp; chute forte)</t>
+  </si>
+  <si>
+    <t>ataque especial pulando (soco forte &amp; chute forte)</t>
+  </si>
+  <si>
+    <t>soco baixo para frente</t>
+  </si>
+  <si>
+    <t>↓ + ←↓ + ← + ←↓ + ↓ + ↓→ + → + U ou J</t>
+  </si>
+  <si>
+    <t>↓ + ↓→ + → + ↓ + ↓→ + → + I ou K</t>
+  </si>
+  <si>
+    <t>↓ + ↓← + ← + U ou J</t>
+  </si>
+  <si>
+    <t>↓segurar + ↑ + U ou J</t>
+  </si>
+  <si>
+    <t>↓ + ↓← + ← + I ou K</t>
+  </si>
+  <si>
+    <t>Low Punch</t>
+  </si>
+  <si>
+    <t>Punch High</t>
+  </si>
+  <si>
+    <t>Low Kick</t>
+  </si>
+  <si>
+    <t>High Kick</t>
+  </si>
+  <si>
+    <t>Crouching Low Punch</t>
+  </si>
+  <si>
+    <t>Crouching High Punch</t>
+  </si>
+  <si>
+    <t>Crouching Low Kick</t>
+  </si>
+  <si>
+    <t>Crouching High Kick</t>
+  </si>
+  <si>
+    <t>Low Punch Jumping</t>
+  </si>
+  <si>
+    <t>High Punch Jumping</t>
+  </si>
+  <si>
+    <t>Low Kick Jumping</t>
+  </si>
+  <si>
+    <t>High Kick Jumping</t>
+  </si>
+  <si>
+    <t>Glued High Punch</t>
+  </si>
+  <si>
+    <t>Glued High Kick</t>
+  </si>
+  <si>
+    <t>Special Attack</t>
+  </si>
+  <si>
+    <t>Special Attack  Jumping</t>
+  </si>
+  <si>
+    <t>Low Punch  Forward</t>
+  </si>
+  <si>
+    <t>Power Wave</t>
+  </si>
+  <si>
+    <t>Weak Power Wave</t>
+  </si>
+  <si>
+    <t>Strong Power Wave</t>
+  </si>
+  <si>
+    <t>Power Charge</t>
+  </si>
+  <si>
+    <t>Power Dunk</t>
+  </si>
+  <si>
+    <t>Power Geyser</t>
+  </si>
+  <si>
+    <t>Buster Wolf</t>
+  </si>
+  <si>
+    <t>Burnig Knuckle</t>
+  </si>
+  <si>
+    <t>Crack Shoot</t>
+  </si>
+  <si>
+    <t>Rising Tackle</t>
+  </si>
+  <si>
+    <t>Weak Power Dunk</t>
+  </si>
+  <si>
+    <t>Strong Power Dunk</t>
+  </si>
+  <si>
+    <t>Weak Power Charge</t>
+  </si>
+  <si>
+    <t>Strong Power Charge</t>
+  </si>
+  <si>
+    <t>↓ + ↓→ + → + U</t>
+  </si>
+  <si>
+    <t>↓ + ↓→ + → + J</t>
+  </si>
+  <si>
+    <t>↓ + ↓→ + → + I</t>
+  </si>
+  <si>
+    <t>↓ + ↓→ + → + K</t>
+  </si>
+  <si>
+    <t>→ + ↓ + ↓→ + → + I</t>
+  </si>
+  <si>
+    <t>→ + ↓ + ↓→ + → + K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -333,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,6 +524,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -666,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE73BED-717E-4439-BBC8-BF9116A08280}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +876,7 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1652,4 +1832,571 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E765B78-54C6-4C9C-A960-6780E46CACCA}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="89.7109375" customWidth="1"/>
+    <col min="6" max="6" width="81.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>300</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>310</v>
+      </c>
+      <c r="D4" s="5">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>320</v>
+      </c>
+      <c r="D6" s="1">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>330</v>
+      </c>
+      <c r="D8" s="5">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>340</v>
+      </c>
+      <c r="D10" s="1">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>350</v>
+      </c>
+      <c r="D12" s="5">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>360</v>
+      </c>
+      <c r="D14" s="1">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>370</v>
+      </c>
+      <c r="D16" s="5">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>380</v>
+      </c>
+      <c r="D18" s="1">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5">
+        <v>390</v>
+      </c>
+      <c r="D20" s="5">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>400</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>410</v>
+      </c>
+      <c r="D24" s="5">
+        <v>41</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>420</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>430</v>
+      </c>
+      <c r="D28" s="5">
+        <v>43</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>440</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>450</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>460</v>
+      </c>
+      <c r="D34" s="1">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4032E9-B6D7-46DC-9D5E-CE2D73BF944F}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="6" width="82.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74522B9A-1C53-4697-A86E-720C0E48434F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Documentação/Actions.xlsx
+++ b/Documentação/Actions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.6\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E34C072-00FE-422C-AF71-9B4BDBF413CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F4E8D1-3F61-437A-B5B2-5027E83421B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Animações Basicas" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
   <si>
     <t>Action</t>
   </si>
@@ -276,33 +276,6 @@
     <t>crouched Idle(11)</t>
   </si>
   <si>
-    <t>soco baixo</t>
-  </si>
-  <si>
-    <t>soco alto</t>
-  </si>
-  <si>
-    <t>chute baixo</t>
-  </si>
-  <si>
-    <t>chute alto</t>
-  </si>
-  <si>
-    <t>soco baixo agachado</t>
-  </si>
-  <si>
-    <t>soco alto agachado</t>
-  </si>
-  <si>
-    <t>chute baixo agachado</t>
-  </si>
-  <si>
-    <t>chute alto agachado</t>
-  </si>
-  <si>
-    <t>soco alto colado</t>
-  </si>
-  <si>
     <t>chute alto colado</t>
   </si>
   <si>
@@ -312,9 +285,6 @@
     <t>ataque especial pulando (soco forte &amp; chute forte)</t>
   </si>
   <si>
-    <t>soco baixo para frente</t>
-  </si>
-  <si>
     <t>↓ + ←↓ + ← + ←↓ + ↓ + ↓→ + → + U ou J</t>
   </si>
   <si>
@@ -330,57 +300,9 @@
     <t>↓ + ↓← + ← + I ou K</t>
   </si>
   <si>
-    <t>Low Punch</t>
-  </si>
-  <si>
-    <t>Punch High</t>
-  </si>
-  <si>
-    <t>Low Kick</t>
-  </si>
-  <si>
-    <t>High Kick</t>
-  </si>
-  <si>
-    <t>Crouching Low Punch</t>
-  </si>
-  <si>
-    <t>Crouching High Punch</t>
-  </si>
-  <si>
-    <t>Crouching Low Kick</t>
-  </si>
-  <si>
-    <t>Crouching High Kick</t>
-  </si>
-  <si>
-    <t>Low Punch Jumping</t>
-  </si>
-  <si>
-    <t>High Punch Jumping</t>
-  </si>
-  <si>
-    <t>Low Kick Jumping</t>
-  </si>
-  <si>
-    <t>High Kick Jumping</t>
-  </si>
-  <si>
-    <t>Glued High Punch</t>
-  </si>
-  <si>
-    <t>Glued High Kick</t>
-  </si>
-  <si>
     <t>Special Attack</t>
   </si>
   <si>
-    <t>Special Attack  Jumping</t>
-  </si>
-  <si>
-    <t>Low Punch  Forward</t>
-  </si>
-  <si>
     <t>Power Wave</t>
   </si>
   <si>
@@ -439,6 +361,87 @@
   </si>
   <si>
     <t>→ + ↓ + ↓→ + → + K</t>
+  </si>
+  <si>
+    <t>soco fraco</t>
+  </si>
+  <si>
+    <t>Weak Punch</t>
+  </si>
+  <si>
+    <t>Strong Punch</t>
+  </si>
+  <si>
+    <t>soco forte</t>
+  </si>
+  <si>
+    <t>chute fraco</t>
+  </si>
+  <si>
+    <t>Strong Kick</t>
+  </si>
+  <si>
+    <t>Weak Kick</t>
+  </si>
+  <si>
+    <t>Weak Punch Forward</t>
+  </si>
+  <si>
+    <t>Glued Strong Punch</t>
+  </si>
+  <si>
+    <t>Glued Strong Kick</t>
+  </si>
+  <si>
+    <t>Crouched Weak Punch</t>
+  </si>
+  <si>
+    <t>Crouched Strong Punch</t>
+  </si>
+  <si>
+    <t>Crouched Weak Kick</t>
+  </si>
+  <si>
+    <t>Crouched Strong Kick</t>
+  </si>
+  <si>
+    <t>Jumping Weak Punch</t>
+  </si>
+  <si>
+    <t>Jumping Strong Punch</t>
+  </si>
+  <si>
+    <t>Jumping Weak Kick</t>
+  </si>
+  <si>
+    <t>Jumping Strong Kick</t>
+  </si>
+  <si>
+    <t>Strong Kick End</t>
+  </si>
+  <si>
+    <t>chute forte</t>
+  </si>
+  <si>
+    <t>soco fraco agachado</t>
+  </si>
+  <si>
+    <t>chute fraco agachado</t>
+  </si>
+  <si>
+    <t>soco fraco para frente</t>
+  </si>
+  <si>
+    <t>soco forte agachado</t>
+  </si>
+  <si>
+    <t>chute forte agachado</t>
+  </si>
+  <si>
+    <t>soco forte colado</t>
+  </si>
+  <si>
+    <t>Jumping Special Attack</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,6 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE73BED-717E-4439-BBC8-BF9116A08280}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E765B78-54C6-4C9C-A960-6780E46CACCA}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1876,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1884,7 +1888,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1895,7 +1899,7 @@
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -1907,7 +1911,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1918,7 +1922,7 @@
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1930,7 +1934,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1941,10 +1945,10 @@
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="C8" s="5">
         <v>330</v>
@@ -1953,297 +1957,310 @@
         <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="5">
+        <v>331</v>
+      </c>
+      <c r="D9" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>340</v>
       </c>
-      <c r="D10" s="1">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="1">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="5">
         <v>350</v>
       </c>
-      <c r="D12" s="5">
-        <v>35</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D13" s="5">
+        <v>36</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>360</v>
       </c>
-      <c r="D14" s="1">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="D15" s="1">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C17" s="5">
         <v>370</v>
       </c>
-      <c r="D16" s="5">
-        <v>37</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D17" s="5">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>380</v>
       </c>
-      <c r="D18" s="1">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="D19" s="1">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="5">
         <v>390</v>
       </c>
-      <c r="D20" s="5">
-        <v>39</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="D21" s="5">
+        <v>40</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>400</v>
       </c>
-      <c r="D22" s="1">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="D23" s="1">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <v>410</v>
       </c>
-      <c r="D24" s="5">
-        <v>41</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="D25" s="5">
+        <v>42</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>420</v>
       </c>
-      <c r="D26" s="1">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D27" s="1">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5">
+        <v>430</v>
+      </c>
+      <c r="D29" s="5">
+        <v>44</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="5">
-        <v>430</v>
-      </c>
-      <c r="D28" s="5">
-        <v>43</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C31" s="1">
+        <v>440</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="1">
-        <v>440</v>
-      </c>
-      <c r="D30" s="1">
-        <v>44</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="C33" s="5">
+        <v>450</v>
+      </c>
+      <c r="D33" s="5">
+        <v>46</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="5">
-        <v>450</v>
-      </c>
-      <c r="D32" s="5">
-        <v>45</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <v>460</v>
       </c>
-      <c r="D34" s="1">
-        <v>46</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="8"/>
+      <c r="D35" s="1">
+        <v>47</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2255,7 +2272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4032E9-B6D7-46DC-9D5E-CE2D73BF944F}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2289,99 +2306,99 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Actions.xlsx
+++ b/Documentação/Actions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.6\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F4E8D1-3F61-437A-B5B2-5027E83421B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C0B838-AE99-45F7-9CFC-2C87E1F4E4DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Animações Basicas" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="149">
   <si>
     <t>Action</t>
   </si>
@@ -351,12 +351,6 @@
     <t>↓ + ↓→ + → + J</t>
   </si>
   <si>
-    <t>↓ + ↓→ + → + I</t>
-  </si>
-  <si>
-    <t>↓ + ↓→ + → + K</t>
-  </si>
-  <si>
     <t>→ + ↓ + ↓→ + → + I</t>
   </si>
   <si>
@@ -426,9 +420,6 @@
     <t>soco fraco agachado</t>
   </si>
   <si>
-    <t>chute fraco agachado</t>
-  </si>
-  <si>
     <t>soco fraco para frente</t>
   </si>
   <si>
@@ -442,6 +433,54 @@
   </si>
   <si>
     <t>Jumping Special Attack</t>
+  </si>
+  <si>
+    <t>preparação para o soco fraco</t>
+  </si>
+  <si>
+    <t>preparação para o soco forte</t>
+  </si>
+  <si>
+    <t>preparação para o chute fraco</t>
+  </si>
+  <si>
+    <t>preparação para o chute forte</t>
+  </si>
+  <si>
+    <t>Final da animação do chute forte</t>
+  </si>
+  <si>
+    <t>preparação para o soco fraco agachado</t>
+  </si>
+  <si>
+    <t>preparação para o soco forte agachado</t>
+  </si>
+  <si>
+    <t>preparação para o chute fraco agachado</t>
+  </si>
+  <si>
+    <t>preparação para o chute forte agachado</t>
+  </si>
+  <si>
+    <t>soco fraco pulando</t>
+  </si>
+  <si>
+    <t>chute fraco pulando</t>
+  </si>
+  <si>
+    <t>chute forte pulando</t>
+  </si>
+  <si>
+    <t>idle(0), walk(20), run(100)</t>
+  </si>
+  <si>
+    <t>↓ + ↓→ + → + I   (Cancelado)</t>
+  </si>
+  <si>
+    <t>↓ + ↓→ + → + K  (Cancelado)</t>
+  </si>
+  <si>
+    <t>Special Attack Start</t>
   </si>
 </sst>
 </file>
@@ -850,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE73BED-717E-4439-BBC8-BF9116A08280}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E765B78-54C6-4C9C-A960-6780E46CACCA}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,7 +1915,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1885,56 +1924,69 @@
         <v>300</v>
       </c>
       <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1">
+        <v>301</v>
+      </c>
+      <c r="D3" s="1">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="5">
         <v>310</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="5">
+        <v>311</v>
+      </c>
+      <c r="D6" s="5">
         <v>31</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>320</v>
-      </c>
-      <c r="D6" s="1">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>113</v>
+      <c r="E6" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1943,33 +1995,39 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="5">
-        <v>330</v>
-      </c>
-      <c r="D8" s="5">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="5">
-        <v>331</v>
-      </c>
-      <c r="D9" s="5">
-        <v>34</v>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>320</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1">
+        <v>321</v>
+      </c>
+      <c r="D9" s="1">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1978,44 +2036,54 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
-        <v>340</v>
-      </c>
-      <c r="D11" s="1">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C11" s="5">
+        <v>330</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="5">
+        <v>331</v>
+      </c>
+      <c r="D12" s="5">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C13" s="5">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="D13" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2026,64 +2094,71 @@
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="D15" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="1">
+        <v>341</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5">
-        <v>370</v>
-      </c>
-      <c r="D17" s="5">
-        <v>38</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>380</v>
-      </c>
-      <c r="D19" s="1">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C18" s="5">
+        <v>350</v>
+      </c>
+      <c r="D18" s="5">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="5">
+        <v>351</v>
+      </c>
+      <c r="D19" s="5">
+        <v>36</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2092,130 +2167,145 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5">
-        <v>390</v>
-      </c>
-      <c r="D21" s="5">
-        <v>40</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C21" s="1">
+        <v>360</v>
+      </c>
+      <c r="D21" s="1">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="1">
+        <v>361</v>
+      </c>
+      <c r="D22" s="1">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="1">
-        <v>400</v>
-      </c>
-      <c r="D23" s="1">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C24" s="5">
+        <v>370</v>
+      </c>
+      <c r="D24" s="5">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="5">
+        <v>371</v>
+      </c>
+      <c r="D25" s="5">
+        <v>38</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5">
-        <v>410</v>
-      </c>
-      <c r="D25" s="5">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
     <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="D27" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="5">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="D29" s="5">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="D31" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2224,43 +2314,181 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="5">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D33" s="5">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="D35" s="1">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="8"/>
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="1">
+        <v>421</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5">
+        <v>430</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="5">
+        <v>431</v>
+      </c>
+      <c r="D39" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="1">
+        <v>440</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="1">
+        <v>441</v>
+      </c>
+      <c r="D42" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5">
+        <v>450</v>
+      </c>
+      <c r="D44" s="5">
+        <v>46</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>460</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="1">
+        <v>461</v>
+      </c>
+      <c r="D47" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2273,7 +2501,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E6" sqref="A5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2559,7 @@
         <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2339,7 +2567,7 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2350,7 +2578,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2358,7 +2586,7 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">

--- a/Documentação/Actions.xlsx
+++ b/Documentação/Actions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.6\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C0B838-AE99-45F7-9CFC-2C87E1F4E4DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D043B8F1-24CB-4912-A341-7891068CBDF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
   </bookViews>
@@ -1882,7 +1882,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentação/Actions.xlsx
+++ b/Documentação/Actions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.6\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532CB77E-BF6B-492F-8824-4B76CF339B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB64FA9-3F87-4A3E-B85C-943787646FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,7 +1881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E765B78-54C6-4C9C-A960-6780E46CACCA}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>

--- a/Documentação/Actions.xlsx
+++ b/Documentação/Actions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.6\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.7\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB64FA9-3F87-4A3E-B85C-943787646FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42840ED-7F7D-4FCA-8EBD-7B9C957A7E8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Animações Basicas" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="167">
   <si>
     <t>Action</t>
   </si>
@@ -291,30 +291,12 @@
     <t>↓ + ↓→ + → + ↓ + ↓→ + → + I ou K</t>
   </si>
   <si>
-    <t>↓ + ↓← + ← + U ou J</t>
-  </si>
-  <si>
-    <t>↓segurar + ↑ + U ou J</t>
-  </si>
-  <si>
-    <t>↓ + ↓← + ← + I ou K</t>
-  </si>
-  <si>
     <t>Special Attack</t>
   </si>
   <si>
     <t>Power Wave</t>
   </si>
   <si>
-    <t>Weak Power Wave</t>
-  </si>
-  <si>
-    <t>Strong Power Wave</t>
-  </si>
-  <si>
-    <t>Power Charge</t>
-  </si>
-  <si>
     <t>Power Dunk</t>
   </si>
   <si>
@@ -333,18 +315,6 @@
     <t>Rising Tackle</t>
   </si>
   <si>
-    <t>Weak Power Dunk</t>
-  </si>
-  <si>
-    <t>Strong Power Dunk</t>
-  </si>
-  <si>
-    <t>Weak Power Charge</t>
-  </si>
-  <si>
-    <t>Strong Power Charge</t>
-  </si>
-  <si>
     <t>↓ + ↓→ + → + U</t>
   </si>
   <si>
@@ -471,16 +441,100 @@
     <t>chute forte pulando</t>
   </si>
   <si>
-    <t>idle(0), walk(20), run(100)</t>
-  </si>
-  <si>
-    <t>↓ + ↓→ + → + I   (Cancelado)</t>
-  </si>
-  <si>
-    <t>↓ + ↓→ + → + K  (Cancelado)</t>
-  </si>
-  <si>
     <t>Special Attack Start</t>
+  </si>
+  <si>
+    <t>Strong Burnig Knuckle</t>
+  </si>
+  <si>
+    <t>Weak Burnig Knuckle</t>
+  </si>
+  <si>
+    <t>Weak Crack Shoot</t>
+  </si>
+  <si>
+    <t>Strong Crack Shoot</t>
+  </si>
+  <si>
+    <t>Strong Rising Tackle</t>
+  </si>
+  <si>
+    <t>↓ + ↓← + ← + K</t>
+  </si>
+  <si>
+    <t>↓ + ↓← + ← + I</t>
+  </si>
+  <si>
+    <t>↓ + ↓← + ← + U</t>
+  </si>
+  <si>
+    <t>↓ + ↓← + ← + J</t>
+  </si>
+  <si>
+    <t>↓segurar + ↑ + U</t>
+  </si>
+  <si>
+    <t>↓segurar + ↑ +  J</t>
+  </si>
+  <si>
+    <t>idle(0), walk(20), walkBack(30), run(100), Change Side(160), Change Side Crouched(170)</t>
+  </si>
+  <si>
+    <t>Weak Crack Shoot Jumping</t>
+  </si>
+  <si>
+    <t>Strong Crack Shoot Jumping</t>
+  </si>
+  <si>
+    <t>Weak Power Dunk Jumping</t>
+  </si>
+  <si>
+    <t>Weak Power Dunk Falling</t>
+  </si>
+  <si>
+    <t>Weak Rising Tackle Start</t>
+  </si>
+  <si>
+    <t>Buster Wolf Start</t>
+  </si>
+  <si>
+    <t>Buster Wolf End</t>
+  </si>
+  <si>
+    <t>Weak Power Dunk Start</t>
+  </si>
+  <si>
+    <t>Strong Power Dunk  Start</t>
+  </si>
+  <si>
+    <t>Weak Burnig Knuckle Start</t>
+  </si>
+  <si>
+    <t>Strong Burnig Knuckle Start</t>
+  </si>
+  <si>
+    <t>Buster Wolf Fail</t>
+  </si>
+  <si>
+    <t>Round Wave</t>
+  </si>
+  <si>
+    <t>Strong Power Dunk Jumping</t>
+  </si>
+  <si>
+    <t>Strong Power Dunk Falling</t>
+  </si>
+  <si>
+    <t>Strong Rising Tackle End</t>
+  </si>
+  <si>
+    <t>Weak Rising Tackle</t>
+  </si>
+  <si>
+    <t>Weak Rising Tackle End</t>
+  </si>
+  <si>
+    <t>Strong Rising Tackle Start</t>
   </si>
 </sst>
 </file>
@@ -504,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,6 +633,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE73BED-717E-4439-BBC8-BF9116A08280}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E765B78-54C6-4C9C-A960-6780E46CACCA}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1982,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1927,16 +1994,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1">
         <v>301</v>
@@ -1945,7 +2012,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1956,7 +2023,7 @@
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -1968,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5">
         <v>311</v>
@@ -1986,7 +2053,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1997,7 +2064,7 @@
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2009,16 +2076,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1">
         <v>321</v>
@@ -2027,7 +2094,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2038,7 +2105,7 @@
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -2050,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5">
         <v>331</v>
@@ -2068,13 +2135,13 @@
         <v>33</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C13" s="5">
         <v>332</v>
@@ -2083,7 +2150,7 @@
         <v>34</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2094,7 +2161,7 @@
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -2106,13 +2173,16 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1">
         <v>341</v>
@@ -2121,18 +2191,18 @@
         <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
@@ -2144,13 +2214,16 @@
         <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C19" s="5">
         <v>351</v>
@@ -2159,18 +2232,18 @@
         <v>36</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -2182,13 +2255,16 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1">
         <v>361</v>
@@ -2197,18 +2273,18 @@
         <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>5</v>
@@ -2220,13 +2296,16 @@
         <v>11</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C25" s="5">
         <v>371</v>
@@ -2235,18 +2314,18 @@
         <v>38</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
@@ -2258,19 +2337,22 @@
         <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>5</v>
@@ -2282,18 +2364,21 @@
         <v>40</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
@@ -2305,10 +2390,13 @@
         <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2316,7 +2404,7 @@
     </row>
     <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>5</v>
@@ -2328,13 +2416,16 @@
         <v>42</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
@@ -2346,13 +2437,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1">
         <v>421</v>
@@ -2368,7 +2462,7 @@
     </row>
     <row r="38" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>5</v>
@@ -2381,12 +2475,15 @@
       </c>
       <c r="E38" s="6" t="s">
         <v>80</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C39" s="5">
         <v>431</v>
@@ -2401,10 +2498,10 @@
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1">
         <v>440</v>
@@ -2416,13 +2513,13 @@
         <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1">
         <v>441</v>
@@ -2439,7 +2536,7 @@
     </row>
     <row r="44" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>5</v>
@@ -2452,12 +2549,15 @@
       </c>
       <c r="E44" s="6" t="s">
         <v>82</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>5</v>
@@ -2469,16 +2569,16 @@
         <v>5</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C47" s="1">
         <v>461</v>
@@ -2498,10 +2598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4032E9-B6D7-46DC-9D5E-CE2D73BF944F}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A5:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,102 +2632,507 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>610</v>
+      </c>
+      <c r="D2" s="1">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>600</v>
+      </c>
+      <c r="D4" s="5">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1">
+        <v>670</v>
+      </c>
+      <c r="D6" s="1">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="1">
+        <v>671</v>
+      </c>
+      <c r="D7" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="1">
+        <v>680</v>
+      </c>
+      <c r="D8" s="1">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="1">
+        <v>681</v>
+      </c>
+      <c r="D9" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="5">
+        <v>620</v>
+      </c>
+      <c r="D11" s="5">
+        <v>53</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5">
+        <v>621</v>
+      </c>
+      <c r="D12" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="5">
+        <v>622</v>
+      </c>
+      <c r="D13" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="5">
+        <v>630</v>
+      </c>
+      <c r="D14" s="5">
+        <v>53</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="5">
+        <v>631</v>
+      </c>
+      <c r="D15" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="5">
+        <v>632</v>
+      </c>
+      <c r="D16" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="1">
+        <v>650</v>
+      </c>
+      <c r="D18" s="1">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="1">
+        <v>651</v>
+      </c>
+      <c r="D19" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1">
+        <v>652</v>
+      </c>
+      <c r="D20" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="1">
+        <v>660</v>
+      </c>
+      <c r="D21" s="1">
+        <v>57</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="1">
+        <v>661</v>
+      </c>
+      <c r="D22" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1">
+        <v>662</v>
+      </c>
+      <c r="D23" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="5">
+        <v>690</v>
+      </c>
+      <c r="D25" s="5">
+        <v>59</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="5">
+        <v>691</v>
+      </c>
+      <c r="D26" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="5">
+        <v>692</v>
+      </c>
+      <c r="D27" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="5">
+        <v>43</v>
+      </c>
+      <c r="D28" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5">
+        <v>44</v>
+      </c>
+      <c r="D29" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="5">
+        <v>700</v>
+      </c>
+      <c r="D30" s="5">
+        <v>59</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="5">
+        <v>701</v>
+      </c>
+      <c r="D31" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="5">
+        <v>702</v>
+      </c>
+      <c r="D32" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="5">
+        <v>43</v>
+      </c>
+      <c r="D33" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="5">
+        <v>44</v>
+      </c>
+      <c r="D34" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>710</v>
+      </c>
+      <c r="D36" s="1">
+        <v>49</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B38" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="5">
+        <v>720</v>
+      </c>
+      <c r="D38" s="5">
+        <v>62</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" t="s">
-        <v>86</v>
-      </c>
+    <row r="39" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="5">
+        <v>721</v>
+      </c>
+      <c r="D39" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="5">
+        <v>722</v>
+      </c>
+      <c r="D40" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="5">
+        <v>733</v>
+      </c>
+      <c r="D41" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
